--- a/data/balance_sheet/3digits/total/478_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/478_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>478-Retail sale via stalls and markets</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>478-Retail sale via stalls and markets</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,15 +915,20 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>63000.36098999999</v>
+        <v>63000.36099</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>128530.16785</v>
@@ -1490,35 +940,40 @@
         <v>108504.23627</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>139872.05582</v>
+        <v>140126.46751</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>178638.42792</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>186188.54181</v>
+        <v>186817.25007</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>228449.55322</v>
+        <v>228390.42826</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>316583.51248</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>144113.43478</v>
+        <v>158115.82202</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>168274.66938</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>180247.1563</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>223165.661</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>7488.081090000001</v>
+        <v>7488.08109</v>
       </c>
       <c r="D6" s="23" t="n">
         <v>16590.50894</v>
@@ -1530,32 +985,37 @@
         <v>12369.08231</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>16636.13426</v>
+        <v>16696.8114</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>21521.80692</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>21292.81992</v>
+        <v>21265.38248</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>19387.17831</v>
+        <v>19386.2136</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>42065.28942</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>12926.21781</v>
+        <v>17452.51649</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>18282.73409</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>18960.26983</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>21687.175</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4244.04536</v>
@@ -1570,32 +1030,37 @@
         <v>8708.22292</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>9922.620570000001</v>
+        <v>9925.12041</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>9271.20818</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>8640.803029999999</v>
+        <v>8723.170769999999</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>7914.189640000001</v>
+        <v>7913.224929999999</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>9499.894870000002</v>
+        <v>9499.89487</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>5079.70858</v>
+        <v>8969.343789999999</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>8425.13998</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>8796.200939999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>11585.068</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1959.55914</v>
@@ -1619,7 +1084,7 @@
         <v>11197.49069</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>9693.169690000001</v>
+        <v>9693.169689999999</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>30267.06295</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>3412.0372</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>2138.595</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>1192.60207</v>
@@ -1650,13 +1120,13 @@
         <v>2702.5147</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>4928.43396</v>
+        <v>4970.89162</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>4916.0844</v>
+        <v>4916.084400000001</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>5615.640619999999</v>
+        <v>5618.38044</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>5819.1906</v>
@@ -1665,23 +1135,28 @@
         <v>6562.84184</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>5896.28824</v>
+        <v>6754.23486</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>5619.420810000001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>7179.81169</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>8535.379999999999</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>697.02205</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>623.8203500000001</v>
+        <v>623.82035</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>1117.33101</v>
@@ -1696,29 +1171,34 @@
         <v>1455.5282</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>5794.46229</v>
+        <v>5907.00729</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>5311.162979999999</v>
+        <v>5311.16298</v>
       </c>
       <c r="K10" s="22" t="n">
         <v>6002.56459</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>1128.40006</v>
+        <v>1500.94506</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>2433.14884</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>2852.69384</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>4976.643</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
-        <v>788.89657</v>
+        <v>788.8965700000001</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>1003.02699</v>
@@ -1730,7 +1210,7 @@
         <v>614.06801</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>991.4251400000001</v>
+        <v>1007.14478</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>893.5877</v>
@@ -1745,17 +1225,22 @@
         <v>1738.05435</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>1181.13681</v>
+        <v>1332.39866</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>3259.28494</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>2424.91384</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>4404.775</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>2.31046</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>2.31046</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>25894.14306</v>
@@ -2016,26 +1531,31 @@
         <v>74188.29012000001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>72179.586</v>
+        <v>72314.96838999999</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>88469.79797999999</v>
+        <v>88461.29798</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>131496.22453</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>33902.80966000001</v>
+        <v>35954.65726</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>25752.81202</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>28556.14912</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>55153.031</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>18997.17378</v>
@@ -2056,26 +1576,31 @@
         <v>60503.45797</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>58952.40767</v>
+        <v>59087.79005999999</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>73787.85460999999</v>
+        <v>73779.35460999999</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>108945.98713</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>30007.03292</v>
+        <v>31979.70691</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>21133.43365</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>23865.36451</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>36400.757</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>5831.5196</v>
@@ -2090,7 +1615,7 @@
         <v>7337.318740000001</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>7932.3438</v>
+        <v>7932.343799999999</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>12361.66258</v>
@@ -2105,17 +1630,22 @@
         <v>17735.5167</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>1805.01999</v>
+        <v>1814.62499</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>3337.2135</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>3408.59854</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>7061.587</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>50.25</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>895.14935</v>
@@ -2225,17 +1765,22 @@
         <v>3389.59428</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>294.555</v>
+        <v>298.1236</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>298.63231</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>298.65351</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>131.816</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>220.55033</v>
@@ -2256,7 +1801,7 @@
         <v>812.98406</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>624.10217</v>
+        <v>624.1021699999999</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>664.22944</v>
@@ -2265,17 +1810,22 @@
         <v>424.52194</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>1605.92843</v>
+        <v>1671.92844</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>676.21844</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>676.2184400000001</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>11090.432</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>177.53126</v>
@@ -2293,10 +1843,10 @@
         <v>327.56657</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>523.42671</v>
+        <v>523.4267100000001</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>542.62671</v>
+        <v>542.6267100000001</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>537.36512</v>
@@ -2308,14 +1858,19 @@
         <v>227.61359</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>1235.45699</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>1239.37166</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>1396.582</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>177.53126</v>
@@ -2339,7 +1894,7 @@
         <v>86.91467</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>79.02755000000001</v>
+        <v>79.02754999999999</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>989.09485</v>
@@ -2348,14 +1903,19 @@
         <v>37.34027</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>928.14287</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>932.05754</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>928.143</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>3643.36194</v>
@@ -2376,7 +1936,7 @@
         <v>3087.14084</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>1794.27435</v>
+        <v>1882.00294</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>4597.858949999999</v>
@@ -2385,17 +1945,22 @@
         <v>3332.59597</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>3714.818</v>
+        <v>4333.38602</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>3044.4057</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>5180.90683</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>4234.01</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2462.10429</v>
@@ -2407,13 +1972,13 @@
         <v>2366.24396</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>3134.92144</v>
+        <v>3134.921440000001</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>2394.55461</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>2192.41136</v>
+        <v>2192.411360000001</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>1555.05774</v>
@@ -2425,17 +1990,22 @@
         <v>2000.89368</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>2030.25013</v>
+        <v>2541.74276</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>1466.60625</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>3458.80949</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>3302.351</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0.35439</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1180.90326</v>
@@ -2576,7 +2161,7 @@
         <v>890.6660000000001</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>239.21661</v>
+        <v>326.9451999999999</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>3237.60168</v>
@@ -2585,17 +2170,22 @@
         <v>1300.46229</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>1678.43787</v>
+        <v>1785.51326</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>1571.66945</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>1715.96734</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>925.529</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>6.13</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>23056.76525</v>
@@ -2730,32 +2335,37 @@
         <v>43759.52501</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>57950.51103</v>
+        <v>58144.00241</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>72409.46473000001</v>
+        <v>72409.46472999999</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>82323.48071999999</v>
+        <v>82678.07136</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>104455.57829</v>
+        <v>104411.40988</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>126437.46428</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>83384.14384999999</v>
+        <v>89347.0313</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>107722.7135</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>114443.64479</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>129299.499</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>1359.9085</v>
@@ -2785,17 +2395,22 @@
         <v>4966.98776</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>3126.41295</v>
+        <v>4518.24098</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>5706.79969</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>7425.32028</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>11557.939</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>127.17247</v>
@@ -2825,17 +2440,22 @@
         <v>1361.18256</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>3506.22887</v>
+        <v>3516.95025</v>
       </c>
       <c r="M38" s="22" t="n">
         <v>2563.64449</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>2562.461</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>380.46834</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>122.56478</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>767.188</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>19071.48191</v>
@@ -2890,32 +2515,37 @@
         <v>35033.65374</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>45222.991</v>
+        <v>45416.48237999999</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>51896.58555</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>61090.72029999999</v>
+        <v>61445.31094</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>78866.27834999999</v>
+        <v>78822.10993999999</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>98077.52806</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>67326.73143000001</v>
+        <v>71737.22126999999</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>84681.47143000001</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>89325.50818999999</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>97452.09699999999</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>65.61000999999999</v>
@@ -2933,29 +2563,34 @@
         <v>1224.11864</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>535.95017</v>
+        <v>535.9501700000001</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>699.3138</v>
+        <v>699.3137999999999</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>524.8045100000001</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>2630.696559999999</v>
+        <v>2630.69656</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>194.8099</v>
+        <v>206.21591</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>341.33937</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>352.54045</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>558.771</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>2052.12402</v>
@@ -3025,17 +2665,22 @@
         <v>17848.13687</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>8945.089239999999</v>
+        <v>9083.531429999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>14306.89374</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>14654.0666</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>16401.043</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>339.57818</v>
@@ -3059,23 +2704,28 @@
         <v>354.71538</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>584.9083699999999</v>
+        <v>584.90837</v>
       </c>
       <c r="K44" s="23" t="n">
         <v>1199.34234</v>
       </c>
       <c r="L44" s="23" t="n">
-        <v>180.39452</v>
+        <v>238.11752</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>180.39452</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>238.11752</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>267.138</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>339.57818</v>
@@ -3099,23 +2749,28 @@
         <v>354.71538</v>
       </c>
       <c r="J45" s="21" t="n">
-        <v>584.9083699999999</v>
+        <v>584.90837</v>
       </c>
       <c r="K45" s="22" t="n">
         <v>1199.34234</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>180.39452</v>
+        <v>238.11752</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>180.39452</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>238.11752</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>267.138</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>138.31959</v>
@@ -3213,29 +2878,34 @@
         <v>401.05447</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>607.7369399999999</v>
+        <v>607.73694</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>723.2991100000002</v>
+        <v>788.41407</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>965.25693</v>
+        <v>965.2569299999999</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>1426.02321</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>1262.18786</v>
+        <v>1353.67479</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>1392.82679</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>1931.6477</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>1208.396</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>138.22494</v>
@@ -3253,10 +2923,10 @@
         <v>393.47527</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>607.7369399999999</v>
+        <v>607.73694</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>722.8625</v>
+        <v>787.97746</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>961.73379</v>
@@ -3265,17 +2935,22 @@
         <v>1420.46236</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>1258.66193</v>
+        <v>1350.14886</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>1384.84273</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>1923.66364</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1201.292</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>0.09465000000000001</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>7.98406</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2437.80142</v>
@@ -3327,35 +3007,40 @@
         <v>4974.120980000001</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>4093.221329999999</v>
+        <v>4093.22133</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>4819.451460000001</v>
+        <v>4819.694630000001</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>6011.07087</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>7053.56443</v>
+        <v>7066.89355</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>9867.94692</v>
+        <v>9862.45508</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>10465.57706</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>8722.863079999999</v>
+        <v>9416.43864</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>11873.78276</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>10911.42051</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>11291.412</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>2141.6433</v>
@@ -3370,32 +3055,37 @@
         <v>3558.36689</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>4355.04389</v>
+        <v>4355.28706</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>5434.96918</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>6497.719230000001</v>
+        <v>6507.6025</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>8168.814209999999</v>
+        <v>8163.32237</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>9198.99142</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>7788.71214</v>
+        <v>8216.778420000001</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>8891.491550000001</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>9699.280720000001</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>9817.59</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>9.802299999999999</v>
@@ -3425,17 +3115,22 @@
         <v>7.05308</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>34.05919</v>
+        <v>34.23919</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>1976.18695</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>29.80921</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>108.03344</v>
@@ -3444,7 +3139,7 @@
         <v>103.47534</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>58.97061</v>
+        <v>58.97060999999999</v>
       </c>
       <c r="F54" s="21" t="n">
         <v>53.005</v>
@@ -3465,17 +3160,22 @@
         <v>69.66794999999999</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>208.98953</v>
+        <v>232.57353</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>128.4139</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>129.52054</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>216.42</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>75.31072</v>
@@ -3496,7 +3196,7 @@
         <v>145.99896</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>94.63693000000001</v>
+        <v>98.08278</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>148.47734</v>
@@ -3505,17 +3205,22 @@
         <v>262.69581</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>213.12837</v>
+        <v>218.68777</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>376.85202</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>551.9716999999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>502.07</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>102.07077</v>
@@ -3545,17 +3250,22 @@
         <v>922.79313</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>474.23464</v>
+        <v>710.42052</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>495.5628400000001</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>652.624</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>0</v>
@@ -3573,7 +3283,7 @@
         <v>2.7338</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>6.504689999999999</v>
+        <v>6.50469</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>0.2935</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>83.158</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.0008900000000000001</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.9399999999999999</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>2.2755</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>9358.223380000001</v>
@@ -3729,32 +3459,37 @@
         <v>19607.71221</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>28298.75555</v>
+        <v>28350.51526</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>30513.55488</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>41805.07649</v>
+        <v>41840.08644</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>49798.08902000001</v>
+        <v>49804.69412</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>61603.02984999999</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>38997.33095</v>
+        <v>40899.46762</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>42283.68945000001</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>45240.23001</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>55386.548</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>3.79456</v>
@@ -3784,17 +3519,22 @@
         <v>82.92398999999999</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>44.56885</v>
+        <v>44.73586</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>61.22888</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>61.39589</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>78.67100000000001</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>26.962</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>3.79456</v>
@@ -3984,17 +3744,22 @@
         <v>48.90999</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>28.51485</v>
+        <v>28.68186</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>34.26688</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>34.43389</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>78.67100000000001</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,18 +3794,23 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>114.19739</v>
       </c>
       <c r="D69" s="36" t="n">
-        <v>64.81321000000001</v>
+        <v>64.81321</v>
       </c>
       <c r="E69" s="36" t="n">
         <v>79.31321000000001</v>
@@ -4067,14 +3837,19 @@
         <v>447.00874</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>549.4709499999999</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>780.33924</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>1952.415</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>42.53525</v>
@@ -4107,14 +3882,19 @@
         <v>446.99124</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>549.45345</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>780.32174</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>1952.397</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>71.66213999999999</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0.0175</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>4.2</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>12.5</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>0.1</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>8.300000000000001</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>7860.78761</v>
+        <v>7860.787609999999</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>12751.16123</v>
@@ -4809,32 +4674,37 @@
         <v>17568.60164</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>24917.1674</v>
+        <v>24963.29151</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>27290.23805</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>38518.75597</v>
+        <v>38519.78045000001</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>44170.37118</v>
+        <v>44176.97628</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>53047.05838</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>31956.01668</v>
+        <v>33401.11344</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>35707.14626</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>37864.68637999999</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>46013.258</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>96.38570000000001</v>
@@ -4849,7 +4719,7 @@
         <v>85.76183999999999</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>1887.12084</v>
+        <v>1922.12084</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>1829.5935</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>474.7607</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>474.76</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>290.10153</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>301.374</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>2053.32315</v>
@@ -4926,13 +4806,13 @@
         <v>2758.5182</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>4218.0536</v>
+        <v>4218.053599999999</v>
       </c>
       <c r="G91" s="22" t="n">
         <v>5878.87358</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>6826.76937</v>
+        <v>6826.769369999999</v>
       </c>
       <c r="I91" s="22" t="n">
         <v>19624.29159</v>
@@ -4944,17 +4824,22 @@
         <v>19953.01354</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>11553.17801</v>
+        <v>12103.82355</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>10775.25585</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>11801.90139</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>14883.015</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>272.11455</v>
@@ -4969,7 +4854,7 @@
         <v>2256.95823</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>3297.198690000001</v>
+        <v>3297.19869</v>
       </c>
       <c r="H92" s="21" t="n">
         <v>3564.297480000001</v>
@@ -4984,23 +4869,28 @@
         <v>8082.502939999999</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>6519.164130000001</v>
+        <v>6579.46558</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>7047.42671</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>7095.86484</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>7589.807</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>5610.94983</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>6025.48546</v>
+        <v>6025.485460000001</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>7664.08692</v>
@@ -5009,7 +4899,7 @@
         <v>7664.22982</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>10771.82493</v>
+        <v>10797.54696</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>11620.51304</v>
@@ -5024,17 +4914,22 @@
         <v>22494.13745</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>13736.95526</v>
+        <v>14677.96013</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>15924.03272</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>17124.38753</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>21344.274</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>1808.18286</v>
@@ -5049,32 +4944,37 @@
         <v>3127.47094</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>3742.67556</v>
+        <v>3749.83292</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>4180.44426</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>4314.32522</v>
+        <v>4324.4035</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>5965.276589999999</v>
+        <v>5971.88169</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>8510.956330000001</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>8214.66655</v>
+        <v>8727.745640000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>11086.41257</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>11550.77641</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>13718.373</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>151.98376</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>2208.00411</v>
@@ -5129,32 +5034,37 @@
         <v>3374.6569</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>5139.90446</v>
+        <v>5161.65974</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>5891.341570000001</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>5924.604270000001</v>
+        <v>5933.65807</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>8984.6836</v>
+        <v>8984.683600000002</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>10991.91701</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>8974.804320000001</v>
+        <v>9594.738509999999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>10431.01103</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>11015.26523</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>13076.496</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>74.46968</v>
@@ -5187,14 +5097,19 @@
         <v>320.8725699999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>505.09896</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>507.0909599999999</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>734.913</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1.38219</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>35.06825</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>35.068</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>1040.90259</v>
@@ -5249,32 +5169,37 @@
         <v>1109.11948</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>1888.8051</v>
+        <v>1894.4407</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>1902.19983</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>1820.563</v>
+        <v>1854.44047</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>2809.96278</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>4886.616899999999</v>
+        <v>4886.6169</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>3854.2148</v>
+        <v>3981.60807</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>4453.3951</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>4564.71537</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>4661.858</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>103.04495</v>
@@ -5304,17 +5229,22 @@
         <v>1813.39614</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>972.1436</v>
+        <v>976.3436</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>1949.48285</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>1974.67794</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>2139.956</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>66.07774999999999</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>17035.14062000001</v>
+        <v>17035.14062</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>17058.49198</v>
@@ -5375,7 +5310,7 @@
         <v>208.74348</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>267.7124499999999</v>
+        <v>267.71245</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>174.32545</v>
@@ -5384,17 +5319,22 @@
         <v>168.3966</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>150.1613</v>
+        <v>159.12105</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>142.87855</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>153.08443</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>172.542</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>940.9474399999999</v>
@@ -5446,16 +5391,16 @@
         <v>6125.640560000001</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>985.7598299999999</v>
+        <v>985.7598300000001</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>1575.11725</v>
+        <v>1580.75285</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>1719.16909</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>1745.34118</v>
+        <v>1822.32873</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>2614.45184</v>
@@ -5464,17 +5409,22 @@
         <v>3643.73237</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>3330.62316</v>
+        <v>3491.12934</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>3112.13762</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>3258.74216</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>3360.743</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>8.5511</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>551.7661899999999</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>480.49</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>80.46865</v>
@@ -5535,26 +5490,31 @@
         <v>439.94508</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>473.30184</v>
+        <v>516.41192</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>683.1167200000001</v>
+        <v>683.11672</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>1081.06058</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>1057.70332</v>
+        <v>1103.97598</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>1302.87011</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>1373.55535</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>1491.873</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>2.75</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>4.54475</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>7.498</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>5.75662</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>14.087</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>1.21187</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>6.589</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>333.4141</v>
@@ -5846,7 +5841,7 @@
         <v>736.98454</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>882.1732499999999</v>
+        <v>882.1732500000001</v>
       </c>
       <c r="G114" s="23" t="n">
         <v>1326.59556</v>
@@ -5864,17 +5859,22 @@
         <v>2790.85532</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>2513.82992</v>
+        <v>2843.30955</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>1407.1055</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>1863.75037</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>1671.053</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>333.4141</v>
@@ -5886,7 +5886,7 @@
         <v>736.98454</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>882.1732499999999</v>
+        <v>882.1732500000001</v>
       </c>
       <c r="G115" s="22" t="n">
         <v>1324.76506</v>
@@ -5904,17 +5904,22 @@
         <v>2790.85532</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>2513.82992</v>
+        <v>2843.30955</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>1407.1055</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>1863.75037</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>1671.053</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0.92713</v>
@@ -5975,7 +5985,7 @@
         <v>15.2492</v>
       </c>
       <c r="I117" s="23" t="n">
-        <v>6.61841</v>
+        <v>6.72641</v>
       </c>
       <c r="J117" s="33" t="n">
         <v>381.88521</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>100.69801</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>1001.695</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.92713</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.32135</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6055,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="22" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="J119" s="21" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>92.27103</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>92.271</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>1.59666</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>810.131</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,15 +6404,20 @@
       <c r="M126" s="22" t="n">
         <v>6.508970000000001</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>99.29300000000001</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>72358.58437</v>
+        <v>72358.58437000001</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>163052.02047</v>
@@ -6369,29 +6429,32 @@
         <v>128111.94848</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>168170.81137</v>
+        <v>168476.98277</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>209151.9828</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>227993.6183</v>
+        <v>228657.33651</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>278247.64224</v>
+        <v>278195.12238</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>378186.54233</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>183110.76573</v>
+        <v>199015.28964</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>210558.35883</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>225487.38631</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>278552.209</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>478-Retail sale via stalls and markets</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>48538.73452000001</v>
@@ -6498,35 +6575,40 @@
         <v>148589.25984</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>87897.79751</v>
+        <v>87897.79750999999</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>112619.73164</v>
+        <v>112876.95032</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>148997.8835</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>168987.08938</v>
+        <v>169587.49561</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>197798.18965</v>
+        <v>197843.99321</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>288638.68324</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>129072.61157</v>
+        <v>137894.21304</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>159826.74053</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>167425.10395</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>191886.256</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>4221.02435</v>
@@ -6556,17 +6638,22 @@
         <v>32760.28201</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>10562.57046</v>
+        <v>12688.56975</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>14625.30607</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>17307.56009</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>22540.155</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>4075.48402</v>
@@ -6575,7 +6662,7 @@
         <v>6868.61589</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>8246.740000000002</v>
+        <v>8246.74</v>
       </c>
       <c r="F134" s="21" t="n">
         <v>9874.932580000001</v>
@@ -6596,17 +6683,22 @@
         <v>29074.51146</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>9428.53433</v>
+        <v>9585.00776</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>13070.61454</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>13783.3427</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>18268.608</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0.001</v>
@@ -6636,17 +6728,22 @@
         <v>1989.52586</v>
       </c>
       <c r="L135" s="22" t="n">
-        <v>93.55488000000001</v>
+        <v>2063.08074</v>
       </c>
       <c r="M135" s="22" t="n">
-        <v>627.88784</v>
-      </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+        <v>2597.4137</v>
+      </c>
+      <c r="N135" s="22" t="n">
+        <v>2126.805</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>112.75533</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>63.718</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>145.53933</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>59.04594</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>582.218</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6907,7 +7034,7 @@
         <v>27.63718</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>98.23604999999999</v>
+        <v>98.23605000000001</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>145.73425</v>
@@ -6921,33 +7048,38 @@
       <c r="M142" s="22" t="n">
         <v>980.5130799999999</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>1626.242</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>27945.21983</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>52261.37723999999</v>
+        <v>52261.37724</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>61621.02643999999</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>52277.22949</v>
+        <v>52277.22949000001</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>72113.80877000002</v>
+        <v>72158.15368</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>88252.15472000001</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>97584.49406</v>
+        <v>98031.35509</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>92052.42874</v>
@@ -6956,17 +7088,22 @@
         <v>168913.81304</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>63687.61272</v>
+        <v>65714.76943</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>75805.34440999999</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>77429.10264</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>84700.12699999999</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>21247.24661</v>
@@ -6981,13 +7118,13 @@
         <v>38925.03198000001</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>57666.39092000001</v>
+        <v>57710.73583</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>68318.37194</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>72939.35156</v>
+        <v>73386.21259000001</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>63821.58713</v>
@@ -6996,23 +7133,28 @@
         <v>112680.77466</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>48836.32659</v>
+        <v>50862.17420999999</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>58414.98573</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>59968.91562</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>70254.18700000001</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>5768.78106</v>
       </c>
       <c r="D145" s="25" t="n">
-        <v>9710.99928</v>
+        <v>9710.999280000002</v>
       </c>
       <c r="E145" s="25" t="n">
         <v>10492.54035</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>16153.73867</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>12943.018</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,15 +7273,20 @@
       <c r="M147" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
-        <v>929.1921599999999</v>
+        <v>929.1921600000001</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>2326.71417</v>
@@ -7156,17 +7313,22 @@
         <v>2084.19818</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>1437.4163</v>
+        <v>1438.72539</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>1236.62001</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>1306.44835</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>1467.562</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>12368.99988</v>
@@ -7181,32 +7343,37 @@
         <v>17867.51103</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>18115.75633</v>
+        <v>18287.9729</v>
       </c>
       <c r="H149" s="33" t="n">
         <v>24613.63872</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>33307.56412</v>
+        <v>33311.15465</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>47252.42324</v>
+        <v>47305.28874</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>51969.71235000001</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>43578.02753</v>
+        <v>46971.31421</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>51502.01309</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>53863.55236</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>68032.663</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>10597.35632</v>
@@ -7221,32 +7388,37 @@
         <v>17053.58649</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>17011.45671</v>
+        <v>17183.67328</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>23052.56224</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>30117.11345</v>
+        <v>30120.70398</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>44011.56017</v>
+        <v>44066.30212000001</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>44986.89875</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>39166.63340999999</v>
+        <v>41643.12098</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>45970.83143</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>47630.35477</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>62750.594</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>48.3956</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>296.58938</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>283.638</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>322.96242</v>
@@ -7350,23 +7532,28 @@
         <v>689.7237</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>984.2749900000001</v>
+        <v>984.27499</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>1543.12934</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>1191.43779</v>
+        <v>1355.10621</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>1376.8161</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>1654.2264</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>1904.539</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1400.28554</v>
@@ -7390,23 +7577,28 @@
         <v>2329.17659</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>2026.6537</v>
+        <v>2024.77725</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>5167.79988</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>2929.26695</v>
+        <v>3682.39764</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>3857.77618</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>4282.38181</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>3093.892</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>938.57803</v>
@@ -7455,13 +7652,13 @@
         <v>34613.36435</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>34912.37822</v>
+        <v>34912.37822000001</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>3047.059130000001</v>
+        <v>3047.05913</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>4477.216930000001</v>
+        <v>4477.21693</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>15198.6944</v>
@@ -7476,17 +7673,22 @@
         <v>24682.79024</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>3765.96781</v>
+        <v>4060.96781</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>8828.48724</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>9554.45391</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>6647.815</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>938.57803</v>
@@ -7501,7 +7703,7 @@
         <v>3041.81663</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>4476.561930000001</v>
+        <v>4476.56193</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>15198.6944</v>
@@ -7516,17 +7718,22 @@
         <v>24607.63952</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>3676.39575</v>
+        <v>3971.39575</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>8573.032730000001</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>9298.999400000001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>6347.817</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>255.45451</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>299.998</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>1.26</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>1.26</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>2778.42386</v>
@@ -7701,32 +7928,37 @@
         <v>4061.78978</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>4928.645259999999</v>
+        <v>4969.30246</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>4870.573489999999</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>4573.159189999999</v>
+        <v>4723.113859999999</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>8006.52393</v>
+        <v>7999.461989999999</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>9618.888750000002</v>
+        <v>9618.88875</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>6857.505790000001</v>
+        <v>7810.64658</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>6987.487460000001</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>8621.305630000001</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>8975.879000000001</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1402.80834</v>
@@ -7741,35 +7973,40 @@
         <v>1561.59887</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>1557.14747</v>
+        <v>1570.56068</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>1497.90121</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>1623.62827</v>
+        <v>1657.0304</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>2577.25337</v>
+        <v>2577.20032</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>3134.27524</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>2299.06155</v>
+        <v>2656.26401</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>2367.40846</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>3037.16209</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>3186.562</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>721.8117600000002</v>
+        <v>721.81176</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>1494.61888</v>
@@ -7781,13 +8018,13 @@
         <v>782.74968</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>1023.30347</v>
+        <v>1050.54746</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>960.68025</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>921.12244</v>
+        <v>1037.34125</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>1472.74666</v>
@@ -7796,17 +8033,22 @@
         <v>2191.03753</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>1375.2523</v>
+        <v>1789.30719</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>1600.69209</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>2149.45537</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>2305.672</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>652.69565</v>
@@ -7827,26 +8069,31 @@
         <v>2409.71703</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>2026.13348</v>
+        <v>2026.46721</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>3954.2489</v>
+        <v>3947.24001</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>4289.96784</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>3167.60142</v>
+        <v>3349.48486</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>2974.74859</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>3390.04985</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>3440.344</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>1.10811</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>44.63832</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>43.301</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>255.87641</v>
@@ -7901,32 +8153,37 @@
         <v>286.60973</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>350.4650099999999</v>
+        <v>350.46501</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>303.00619</v>
+        <v>303.0061899999999</v>
       </c>
       <c r="I167" s="23" t="n">
         <v>322.89964</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>489.31837</v>
+        <v>489.3183700000001</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>552.59894</v>
+        <v>552.5989400000001</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>488.41572</v>
+        <v>495.57052</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>324.31138</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>504.6084499999999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>803.482</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>252.29325</v>
@@ -7956,20 +8213,25 @@
         <v>1002.72023</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>639.49332</v>
+        <v>640.17399</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>600.10787</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>783.3133800000001</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>1086.575</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>-3.583159999999996</v>
+        <v>-3.58316</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>104.62911</v>
@@ -7993,20 +8255,25 @@
         <v>459.46138</v>
       </c>
       <c r="K169" s="22" t="n">
-        <v>451.5017099999999</v>
+        <v>451.50171</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>151.2776</v>
+        <v>144.80347</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>275.99649</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>278.90493</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>315.264</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>32.171</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0.2</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>23.86993</v>
@@ -8150,23 +8432,28 @@
         <v>26.07147</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>99.67384999999999</v>
+        <v>99.67385</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>130.45775</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>62.96256</v>
+        <v>82.82575999999999</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>96.92</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>116.7832</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>178.877</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>23.86993</v>
@@ -8236,17 +8528,22 @@
         <v>122.97603</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>62.96256</v>
+        <v>82.82575999999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>96.92</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>116.7832</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>178.877</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>6.742229999999999</v>
@@ -8279,14 +8576,19 @@
         <v>69.54898</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>1655.61088</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>26.47767</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>5.998</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>6.742229999999999</v>
@@ -8319,14 +8621,19 @@
         <v>64.3738</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>1655.61088</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>26.47767</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>5.525</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>3499.43212</v>
@@ -8501,7 +8828,7 @@
         <v>11153.6861</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>16678.93505</v>
+        <v>16682.83617</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>19025.9596</v>
@@ -8513,20 +8840,25 @@
         <v>39698.08143999999</v>
       </c>
       <c r="K182" s="23" t="n">
-        <v>44703.32036999999</v>
+        <v>44703.32037</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>21291.10123</v>
+        <v>23242.24263</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>18102.24287</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>20581.0316</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>38885.099</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>916.5655899999999</v>
@@ -8541,7 +8873,7 @@
         <v>4220.8745</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>9407.51924</v>
+        <v>9411.42036</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>6491.64083</v>
@@ -8556,17 +8888,22 @@
         <v>19341.27933</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>13910.75062</v>
+        <v>14526.26355</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>8615.20124</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>10206.32501</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>20170.193</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>916.5655899999999</v>
@@ -8581,7 +8918,7 @@
         <v>4205.42636</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>9402.354810000001</v>
+        <v>9406.255929999999</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>6491.64083</v>
@@ -8596,17 +8933,22 @@
         <v>19171.3855</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>13895.48265</v>
+        <v>14510.99558</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>8506.001829999999</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>10097.1256</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>19498.185</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>113.44172</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>213.467</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>4.242310000000001</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>26.009</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>484.55</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>238.01691</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1729.08313</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>1729.083</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>110.51691</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>127.5</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1722</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>1722</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>7.08313</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>2252.54112</v>
@@ -9116,17 +9518,22 @@
         <v>21908.2721</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>5477.780549999999</v>
+        <v>6660.969529999999</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>7690.293650000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>8425.519120000001</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>16669.256</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2252.48112</v>
@@ -9141,7 +9548,7 @@
         <v>5564.88426</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>5713.671729999999</v>
+        <v>5713.67173</v>
       </c>
       <c r="H198" s="21" t="n">
         <v>5962.06413</v>
@@ -9156,17 +9563,22 @@
         <v>21462.99996</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>5110.76767</v>
+        <v>6293.95665</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>7562.690729999999</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>8237.69073</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>15204.188</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9279,14 +9701,19 @@
         <v>77.05</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>2.4</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>1224.304</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0.06</v>
@@ -9359,14 +9791,19 @@
         <v>289.96288</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>127.60292</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>185.42839</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>240.764</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>42.16909</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>53.6</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>92.13</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>42.16909</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>53.6</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0.93696</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0.93696</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>50.13941</v>
@@ -9636,17 +10103,22 @@
         <v>251.50807</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>20.0331</v>
+        <v>172.47259</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>13.12789</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>165.56738</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>223.392</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>39.4269</v>
@@ -9670,10 +10142,10 @@
         <v>2.25</v>
       </c>
       <c r="J211" s="21" t="n">
-        <v>4.86778</v>
+        <v>4.867780000000001</v>
       </c>
       <c r="K211" s="22" t="n">
-        <v>4.86778</v>
+        <v>4.867780000000001</v>
       </c>
       <c r="L211" s="22" t="n">
         <v>5</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>7.501</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>10.71251</v>
@@ -9716,17 +10193,22 @@
         <v>246.64029</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>15.0331</v>
+        <v>167.47259</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>8.127890000000001</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>160.56738</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>215.891</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>20320.41773</v>
@@ -9901,32 +10403,37 @@
         <v>29060.46487</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>38872.14468</v>
+        <v>38917.19628</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>41128.1397</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>39039.22798999999</v>
+        <v>39102.53997</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>40751.37115000001</v>
+        <v>40653.04773000001</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>44844.53872</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>32747.05293</v>
+        <v>37878.83397</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>32629.37543</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>37481.25076</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>47780.854</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>21420.13312</v>
@@ -9941,32 +10448,37 @@
         <v>31848.06096</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>37002.44532</v>
+        <v>37102.44532</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>38469.04743</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>36580.03887</v>
+        <v>36687.62807</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>39137.52264</v>
+        <v>39217.52264</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>42264.05058</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>32319.54316</v>
+        <v>39149.78652</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>30900.43062</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>37558.79263</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>46657.441</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>31490.92932</v>
@@ -9975,38 +10487,43 @@
         <v>39648.23932</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>45997.49637000001</v>
+        <v>45997.49637</v>
       </c>
       <c r="F219" s="21" t="n">
         <v>45575.763</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>44795.187</v>
+        <v>44895.187</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>46078.77357</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>42112.57457</v>
+        <v>42432.57457</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>44684.46357</v>
+        <v>44764.46357</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>46959.84857</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>37275.25938</v>
+        <v>47497.8944</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>35248.35939</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>47354.75939</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>56997.697</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>10944.45028</v>
@@ -10027,26 +10544,31 @@
         <v>8859.00251</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>6903.43508</v>
+        <v>7128.43508</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>6851.567909999999</v>
+        <v>6851.56791</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>5991.339639999999</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>5672.59224</v>
+        <v>9249.93549</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>4799.51786</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>10666.06786</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>11156.549</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>873.6540799999999</v>
@@ -10067,7 +10589,7 @@
         <v>1249.27637</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>1370.89938</v>
+        <v>1383.48858</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>1346.5306</v>
@@ -10076,17 +10598,22 @@
         <v>1297.21639</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>718.55076</v>
+        <v>1094.31595</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>644.07743</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>1062.58944</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>1008.782</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10116,17 +10643,22 @@
         <v>1.67474</v>
       </c>
       <c r="L222" s="22" t="n">
-        <v>1.67474</v>
+        <v>192.48834</v>
       </c>
       <c r="M222" s="22" t="n">
         <v>192.48834</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>192.489</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>0</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>1624.08715</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>2246.912</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>1523.035</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>1445.86</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>0</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>101.05215</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>801.052</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>1198.14499</v>
@@ -10476,17 +11048,22 @@
         <v>1765.18801</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>1609.16776</v>
+        <v>1663.45226</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>1659.62963</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>1728.15088</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>2115.717</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>250.04187</v>
@@ -10516,17 +11093,22 @@
         <v>596.88073</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>490.53812</v>
+        <v>534.6269100000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>490.19389</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>548.7114499999999</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>569.62</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>4.14627</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>19.76592</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>21.157</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>418.66446</v>
@@ -10596,17 +11183,22 @@
         <v>1053.56715</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>1048.87126</v>
+        <v>1059.06697</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>1134.48428</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>1144.48797</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>1197.76</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>6.20516</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>519.08723</v>
@@ -10673,7 +11270,7 @@
         <v>78.82754</v>
       </c>
       <c r="K236" s="22" t="n">
-        <v>79.56732000000001</v>
+        <v>79.56732</v>
       </c>
       <c r="L236" s="22" t="n">
         <v>33.26967</v>
@@ -10681,18 +11278,23 @@
       <c r="M236" s="22" t="n">
         <v>15.18554</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>4769.38424</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>5102.60756</v>
+        <v>5102.607559999999</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>6520.21622</v>
@@ -10701,32 +11303,37 @@
         <v>7525.51568</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>9110.991480000001</v>
+        <v>9157.323960000002</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>11864.69946</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>12412.65761</v>
+        <v>12458.73153</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>15806.52789</v>
+        <v>15806.66274</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>20173.61838</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>14519.29051</v>
+        <v>16594.77344</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>16457.07756</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>18054.69912</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>19640.431</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-6779.65004</v>
@@ -10741,38 +11348,43 @@
         <v>-10954.3391</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-9716.784619999999</v>
+        <v>-9781.827670000001</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-10569.6929</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-11649.75616</v>
+        <v>-11740.1073</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-14883.1665</v>
+        <v>-15057.38113</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-20964.88297</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-17987.74599</v>
+        <v>-21556.22952</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-18091.0892</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-21816.09912</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-23678.929</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-287.59458</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>-474.48951</v>
+        <v>-474.4895100000001</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-1252.74537</v>
@@ -10781,32 +11393,37 @@
         <v>-489.08035</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>945.0045999999999</v>
+        <v>908.7667700000001</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>98.18486000000004</v>
+        <v>98.1848600000001</v>
       </c>
       <c r="I239" s="23" t="n">
         <v>281.84126</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-1525.37611</v>
+        <v>-1529.61975</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>258.4275700000003</v>
+        <v>258.4275699999998</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>662.71034</v>
+        <v>402.9641199999999</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>79.23967000000005</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>331.6201000000001</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>799.282</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2080.47458</v>
@@ -10830,23 +11447,28 @@
         <v>3803.25307</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>4883.94702</v>
+        <v>4883.03941</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>7001.80878</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>4870.59185</v>
+        <v>4872.97476</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>4694.078530000001</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>5333.1857</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>5837.356</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>2368.06916</v>
@@ -10861,7 +11483,7 @@
         <v>3639.22229</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>2782.27062</v>
+        <v>2818.50845</v>
       </c>
       <c r="H241" s="21" t="n">
         <v>3478.79587</v>
@@ -10870,23 +11492,28 @@
         <v>3521.41181</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>6409.323130000001</v>
+        <v>6412.65916</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>6743.38121</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>4207.88151</v>
+        <v>4470.01064</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>4614.83886</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>5001.5656</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>5038.074</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>72358.58437000001</v>
@@ -10901,29 +11528,32 @@
         <v>128111.94848</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>168170.81137</v>
+        <v>168476.98277</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>209151.9828</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>227993.6183</v>
+        <v>228657.33651</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>278247.64224</v>
+        <v>278195.12238</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>378186.54233</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>183110.76573</v>
+        <v>199015.28964</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>210558.35883</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>225487.38631</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>278552.209</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>254</v>
@@ -10957,29 +11590,32 @@
         <v>302</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>327</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>340</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>243</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>297</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>317</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>